--- a/pred_ohlcv/54_23/2019-10-08 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54_23/2019-10-08 HDAC ohlcv.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -415,7 +415,7 @@
         <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -438,7 +438,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -461,7 +461,7 @@
         <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -484,7 +484,7 @@
         <v>36.9</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>36.9</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>36.9</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>36.9</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>37</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -622,7 +622,7 @@
         <v>36.9</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>36.9</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>37</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>37.1</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>37.1</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>37.3</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -967,7 +967,7 @@
         <v>37.1</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>37.2</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1039,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1108,7 +1108,7 @@
         <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1128,10 +1128,10 @@
         <v>36.8</v>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1151,7 +1151,7 @@
         <v>37</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>36.9</v>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="G104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -3083,7 +3083,7 @@
         <v>36.2</v>
       </c>
       <c r="F118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -3106,7 +3106,7 @@
         <v>36.1</v>
       </c>
       <c r="F119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>36.1</v>
       </c>
       <c r="F120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -3152,7 +3152,7 @@
         <v>36.2</v>
       </c>
       <c r="F121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -3175,7 +3175,7 @@
         <v>36.1</v>
       </c>
       <c r="F122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -3198,7 +3198,7 @@
         <v>36.1</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>36.3</v>
       </c>
       <c r="F128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -3382,7 +3382,7 @@
         <v>36.3</v>
       </c>
       <c r="F131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -3405,7 +3405,7 @@
         <v>36.3</v>
       </c>
       <c r="F132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -3428,7 +3428,7 @@
         <v>36.3</v>
       </c>
       <c r="F133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -3451,7 +3451,7 @@
         <v>36.3</v>
       </c>
       <c r="F134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -3474,7 +3474,7 @@
         <v>36.3</v>
       </c>
       <c r="F135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -3497,7 +3497,7 @@
         <v>36.6</v>
       </c>
       <c r="F136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -3520,7 +3520,7 @@
         <v>36.4</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -3543,7 +3543,7 @@
         <v>36.4</v>
       </c>
       <c r="F138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>36.4</v>
       </c>
       <c r="F139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -3589,10 +3589,10 @@
         <v>36.5</v>
       </c>
       <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
         <v>1</v>
-      </c>
-      <c r="G140" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="141">
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -3730,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3776,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3845,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -5022,6 +5022,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>